--- a/predictions_open_to_close_final_Valen.xlsx
+++ b/predictions_open_to_close_final_Valen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF098AB5-19F3-4878-98DF-BE4A74DA02DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA1D28-CDE5-443F-9AA7-364C5F2FBB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,16 +38,15 @@
     <t>date</t>
   </si>
   <si>
-    <t>prediction</t>
+    <t>pred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -98,15 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2990,10 +2986,10 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="4">
+      <c r="A322" s="2">
         <v>45394</v>
       </c>
-      <c r="B322" s="5">
+      <c r="B322">
         <v>1</v>
       </c>
     </row>
@@ -3606,7 +3602,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="3">
+      <c r="A399" s="2">
         <v>45506</v>
       </c>
       <c r="B399">
